--- a/data/sumario_BPA_con_2022.xlsx
+++ b/data/sumario_BPA_con_2022.xlsx
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3">
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1769</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +420,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>6.16</v>
+        <v>6.87</v>
       </c>
     </row>
   </sheetData>
